--- a/Plano de Testes.xlsx
+++ b/Plano de Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/guilherme_abreu_fatec_sp_gov_br/Documents/Disciplinas/2 Semestre/IES100-Engenharia de Software I/Atividades/Exercício 12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{009CFC69-FCF7-42C8-BD12-61FD4A69A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9821844-FC79-4409-B568-5EF87B9FEAAE}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{90F1A8FE-77E6-4C56-B8D2-6F73AE4A47D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A40E3B3D-0D7F-4EBA-AD94-8BE72F9FB6A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52EFB71C-444F-4692-8AA0-A11AD780B956}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Identificação</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Verificar login com credecinais corretas</t>
   </si>
   <si>
-    <t>Login: admin@sicm.com Senha: senhaDoAdmin</t>
-  </si>
-  <si>
     <t>Entrar no sistema</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Verificar a criação de novos usuários</t>
   </si>
   <si>
-    <t>Nome: UsuTeste                          Email: usuTeste@gmail.com Senha: testeDoUsuario      Confirme a senha: testeDoUsuario</t>
-  </si>
-  <si>
     <t>Mensagem de sucesso: "Usuário cadastrado"</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Verificar comunicação com a API dados das partidas</t>
   </si>
   <si>
-    <t>Usuário visualizar as 4 próximas partidas na tela inicial</t>
-  </si>
-  <si>
     <t>Usuário visualizar as últimas notícias no slide da tela inicial</t>
   </si>
   <si>
@@ -142,22 +133,100 @@
     <t>Verificar a tela de exibição dos grupos de seleções</t>
   </si>
   <si>
-    <t>Teste Tela de Prograssão</t>
-  </si>
-  <si>
     <t>Usuário visualizar os grupos e suas seleções. Ao clicar na seleção, o usuário deve ser direcionado para a tela de "Dados das seleções" e visualizar as informações do time que clicou. Ao clicar no botão de "Progressão" o usuário deve ir para a tela "Tabela de Prograssão"</t>
   </si>
   <si>
-    <t>Verificar a funcionalidade da tela e a comunicação com a API de futebol</t>
-  </si>
-  <si>
-    <t>Usuário deve visualizar a tabela e esta deve se atualizar automaticamente de acordo com o andamento das partidas, indicando qual seleção jogará com qual em cada etapa (Oitavas, quartas, ...)</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>Login: teste@teste.com    Senha: 123</t>
+    <t>Teste Tela de Progressão</t>
+  </si>
+  <si>
+    <t>Verificar se a tabela de prograssão está sendo carregada corretamente</t>
+  </si>
+  <si>
+    <t>Usuário acessa a tela e clica nas seleções</t>
+  </si>
+  <si>
+    <t>Usuário deve visualizar a tabela e esta deve se atualizar de acordo com o andamento das partidas, pelo administrador, indicando qual seleção jogará com qual em cada etapa (Oitavas, quartas, ...). O usuário deve poder clicar na seleção e visualizar a tela de "Dados da Seleção"</t>
+  </si>
+  <si>
+    <t>Usuário carrega a página e visualiza a seção de próximas partidas.</t>
+  </si>
+  <si>
+    <t>Usuário abre a tela de grupos e clica em uma seleção ou no botão "Progressão"</t>
+  </si>
+  <si>
+    <t>Usuário deve conseguir visualizar as 4 próximas partidas na tela inicial, sem precisar realizar nenhuma ação.</t>
+  </si>
+  <si>
+    <t>Login: teste@teste.com            Senha: 123</t>
+  </si>
+  <si>
+    <t>Login: admin@sicm.com               Senha: senhaDoAdmin</t>
+  </si>
+  <si>
+    <t>Nome: UsuTeste                            Email: usuTeste@gmail.com    Senha: testeDoUsuario          Confirme a senha: testeDoUsuario</t>
+  </si>
+  <si>
+    <t>Teste Tela Dados das Seleções</t>
+  </si>
+  <si>
+    <t>Teste Tela Datas e Resultados  das Partidas</t>
+  </si>
+  <si>
+    <t>Teste Tela Últimas Notícias</t>
+  </si>
+  <si>
+    <t>Teste Tela Informações País Sede</t>
+  </si>
+  <si>
+    <t>Teste Tela Tabela Pontuação</t>
+  </si>
+  <si>
+    <t>Verificar funcionamento da busca de seleções</t>
+  </si>
+  <si>
+    <t>Seleção: Brasil</t>
+  </si>
+  <si>
+    <t>Usuário seleciona a seleção no campo indicado</t>
+  </si>
+  <si>
+    <t>Usuário deve ter acesso a uma tela onde são exibidos os jogadores convocados de cada seleção. Outras informações podem, futuramente, ser incluídas, como dados do técnico, do país, etc.]</t>
+  </si>
+  <si>
+    <t>Verificar funcionamento da integração com a API de dados das partidas</t>
+  </si>
+  <si>
+    <t>Usuário pode, caso queira, informar a seleção que deseja visualizar as datas, ou ter uma visão geral</t>
+  </si>
+  <si>
+    <t>Usuário tem acesso às datas das próximas partidas da seleção informada, ou de todas, caso não tenha filtrado. Além disso, pode visualizar os resultados das partidas anteriores</t>
+  </si>
+  <si>
+    <t>Verificar a integração com a API de notícias</t>
+  </si>
+  <si>
+    <t>Usuário pode, caso queira, informar a seleção que deseja visualizar as notícias, ou ter uma visão geral</t>
+  </si>
+  <si>
+    <t>Usuário tem acesso às notícias da seleção escolhida ou de todaas caso não tenha filtrado. Ao clicar na notícia, ele deve ser redirecionado ao portal que a publicou</t>
+  </si>
+  <si>
+    <t>Verificar se as informações estão sendo exibidas corretamente</t>
+  </si>
+  <si>
+    <t>Usuário deve clicar no botão e poder interagir com a ela</t>
+  </si>
+  <si>
+    <t>Usuário tem acesso às informações do país sede, como dados do estádio, curiosidades da cultura, entre outros.</t>
+  </si>
+  <si>
+    <t>Verificar integração com a API de futebol</t>
+  </si>
+  <si>
+    <t>Usuário clica no botão de "Tabela de Pontuação" e deve ter acesso a ela</t>
+  </si>
+  <si>
+    <t>Usuário deve visualizar a tabela de pontuação, que deve ser atualizada automaticamente, partida a partida, pela API. Ao clicar no ícone da seleção, ele deve ser redirecionado à tela de "Dados da Seleção"</t>
   </si>
 </sst>
 </file>
@@ -541,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E55670-C89B-4E94-833A-0F4673E63554}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -640,19 +709,19 @@
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -660,19 +729,19 @@
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -680,39 +749,39 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -720,88 +789,143 @@
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
